--- a/05_Gestantes/script/análise de procedimentos/tempos_procedimentos.xlsx
+++ b/05_Gestantes/script/análise de procedimentos/tempos_procedimentos.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39ffc30baf637d13/Documents/GitHub/dimensionamento/05_Gestantes/script/análise de procedimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_7EB82F4FD8789C4873EEEC713CAF733213632F32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE6B6204-2338-4B25-BC6A-FC071E604E37}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_7EB82F4FD8789C4873EEEC713CAF733213632F32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E55A3418-ED94-4B17-9453-5FD3F62167CD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="backup" sheetId="2" r:id="rId1"/>
+    <sheet name="categorias" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">backup!$A$1:$Q$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">categorias!$B$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="139">
   <si>
     <t>procedimento</t>
   </si>
@@ -434,6 +436,18 @@
   <si>
     <t>0301010048p</t>
   </si>
+  <si>
+    <t>Pegar só o médico ginecologista</t>
+  </si>
+  <si>
+    <t>APS + especializada</t>
+  </si>
+  <si>
+    <t>Pegar só o 223415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar só o enfermeiro obstetra </t>
+  </si>
 </sst>
 </file>
 
@@ -770,9 +784,9 @@
   </sheetPr>
   <dimension ref="A1:Z1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N265" sqref="N265"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="F31:O264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -41138,4 +41152,319 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF0E48-767C-4FDA-BB25-E965EE0BDB86}">
+  <dimension ref="B1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="28.8">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="28.8">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2516</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2232</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2235</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2236</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2238</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2231</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2237</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="28.8">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2241</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="43.2">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2263</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2515</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3224</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="28.8">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3222</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="43.2">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2239</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="28.8">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3222</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2211</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2212</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2234</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="28.8">
+      <c r="B19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3242</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2231</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2515</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2231</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2236</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2237</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="28.8">
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3222</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:D26" xr:uid="{61EF0E48-767C-4FDA-BB25-E965EE0BDB86}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D26">
+      <sortCondition ref="B1:B26"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/05_Gestantes/script/análise de procedimentos/tempos_procedimentos.xlsx
+++ b/05_Gestantes/script/análise de procedimentos/tempos_procedimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39ffc30baf637d13/Documents/GitHub/dimensionamento/05_Gestantes/script/análise de procedimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_7EB82F4FD8789C4873EEEC713CAF733213632F32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E55A3418-ED94-4B17-9453-5FD3F62167CD}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_7EB82F4FD8789C4873EEEC713CAF733213632F32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D68D83F2-B5DD-4395-B7CF-AFA6C2EB629B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="backup" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="138">
   <si>
     <t>procedimento</t>
   </si>
@@ -407,9 +407,6 @@
     <t>0301010129</t>
   </si>
   <si>
-    <t>0202120018</t>
-  </si>
-  <si>
     <t>Parto cesariano</t>
   </si>
   <si>
@@ -784,9 +781,9 @@
   </sheetPr>
   <dimension ref="A1:Z1119"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="F31:O264"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -930,7 +927,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>86</v>
@@ -1240,7 +1237,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>119</v>
@@ -2418,7 +2415,7 @@
         <v>110</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>86</v>
@@ -3037,8 +3034,8 @@
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>125</v>
+      <c r="B37" s="2">
+        <v>202120023</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>119</v>
@@ -3099,8 +3096,8 @@
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>125</v>
+      <c r="B38" s="2">
+        <v>202120023</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>119</v>
@@ -3161,8 +3158,8 @@
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>125</v>
+      <c r="B39" s="2">
+        <v>202120023</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>119</v>
@@ -6509,8 +6506,8 @@
       <c r="A93" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>125</v>
+      <c r="B93" s="2">
+        <v>202120023</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>119</v>
@@ -6571,8 +6568,8 @@
       <c r="A94" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>125</v>
+      <c r="B94" s="2">
+        <v>202120023</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>119</v>
@@ -6633,8 +6630,8 @@
       <c r="A95" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>125</v>
+      <c r="B95" s="2">
+        <v>202120023</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>119</v>
@@ -9607,19 +9604,19 @@
     </row>
     <row r="143" spans="1:26" ht="28.8">
       <c r="A143" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B143" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>88</v>
@@ -9655,7 +9652,7 @@
         <v>380</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
@@ -10043,8 +10040,8 @@
       <c r="A150" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>125</v>
+      <c r="B150" s="2">
+        <v>202120023</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>119</v>
@@ -10105,8 +10102,8 @@
       <c r="A151" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>125</v>
+      <c r="B151" s="2">
+        <v>202120023</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>119</v>
@@ -10167,8 +10164,8 @@
       <c r="A152" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>125</v>
+      <c r="B152" s="2">
+        <v>202120023</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>119</v>
@@ -13144,7 +13141,7 @@
         <v>116</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>86</v>
@@ -13577,8 +13574,8 @@
       <c r="A207" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>125</v>
+      <c r="B207" s="2">
+        <v>202120023</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>119</v>
@@ -13639,8 +13636,8 @@
       <c r="A208" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>125</v>
+      <c r="B208" s="2">
+        <v>202120023</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>119</v>
@@ -13701,8 +13698,8 @@
       <c r="A209" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>125</v>
+      <c r="B209" s="2">
+        <v>202120023</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>119</v>
@@ -15869,19 +15866,19 @@
     </row>
     <row r="244" spans="1:26" ht="28.8">
       <c r="A244" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B244" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="B244" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F244" s="13" t="s">
         <v>88</v>
@@ -15917,7 +15914,7 @@
         <v>350</v>
       </c>
       <c r="Q244" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R244" s="3"/>
       <c r="S244" s="3"/>
@@ -15931,19 +15928,19 @@
     </row>
     <row r="245" spans="1:26" ht="28.8">
       <c r="A245" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B245" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B245" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>88</v>
@@ -15979,7 +15976,7 @@
         <v>380</v>
       </c>
       <c r="Q245" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R245" s="3"/>
       <c r="S245" s="3"/>
@@ -17174,7 +17171,7 @@
         <v>113</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>86</v>
@@ -41158,7 +41155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF0E48-767C-4FDA-BB25-E965EE0BDB86}">
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -41170,7 +41167,7 @@
     <col min="5" max="5" width="37.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="28.8">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -41247,7 +41244,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -41340,7 +41337,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1">
         <v>2211</v>
@@ -41351,7 +41348,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1">
         <v>2212</v>
@@ -41362,7 +41359,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1">
         <v>2234</v>
@@ -41373,7 +41370,7 @@
     </row>
     <row r="19" spans="2:5" ht="28.8">
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1">
         <v>3242</v>
@@ -41393,7 +41390,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -41418,7 +41415,7 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:5">

--- a/05_Gestantes/script/análise de procedimentos/tempos_procedimentos.xlsx
+++ b/05_Gestantes/script/análise de procedimentos/tempos_procedimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39ffc30baf637d13/Documents/GitHub/dimensionamento/05_Gestantes/script/análise de procedimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_7EB82F4FD8789C4873EEEC713CAF733213632F32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D68D83F2-B5DD-4395-B7CF-AFA6C2EB629B}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_7EB82F4FD8789C4873EEEC713CAF733213632F32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588D4E12-52BC-44AA-ADC5-89212D8EDC8C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,9 +781,9 @@
   </sheetPr>
   <dimension ref="A1:Z1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R264" sqref="R264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -16994,7 +16994,7 @@
         <v>87</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>88</v>
@@ -17104,7 +17104,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264" spans="1:26" ht="14.4">
+    <row r="264" spans="1:26" ht="28.8">
       <c r="A264" s="1" t="s">
         <v>74</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>77</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G264" s="1">
         <v>2231</v>

--- a/05_Gestantes/script/análise de procedimentos/tempos_procedimentos.xlsx
+++ b/05_Gestantes/script/análise de procedimentos/tempos_procedimentos.xlsx
@@ -781,9 +781,9 @@
   </sheetPr>
   <dimension ref="A1:Z1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R264" sqref="R264"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
